--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>anchor score</t>
   </si>
@@ -70,51 +70,51 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
@@ -130,28 +130,25 @@
     <t>like</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>help</t>
+    <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>increase</t>
   </si>
   <si>
     <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>online</t>
@@ -527,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,13 +617,13 @@
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -646,13 +643,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8333333333333334</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -664,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9661016949152542</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -720,13 +717,13 @@
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9565217391304348</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M5">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -738,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -746,13 +743,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4133333333333333</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -764,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -788,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -796,13 +793,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3557046979865772</v>
+        <v>0.3892617449664429</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -814,19 +811,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8414634146341463</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +867,13 @@
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.84375</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>108</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -888,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -896,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.2962962962962963</v>
+        <v>0.291005291005291</v>
       </c>
       <c r="C9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -914,19 +911,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.828125</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L9">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="M9">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -938,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -946,13 +943,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1865079365079365</v>
+        <v>0.1507936507936508</v>
       </c>
       <c r="C10">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D10">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -964,19 +961,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -988,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -996,13 +993,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1126005361930295</v>
+        <v>0.09919571045576407</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1014,19 +1011,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1046,13 +1043,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7887323943661971</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>112</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1072,13 +1069,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7833333333333333</v>
+        <v>0.775</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1090,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1098,13 +1095,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.746031746031746</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L14">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1124,13 +1121,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.7450980392156863</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L15">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1142,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1150,13 +1147,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.7358490566037735</v>
+        <v>0.74375</v>
       </c>
       <c r="L16">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="M16">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1168,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1176,13 +1173,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.73125</v>
+        <v>0.7264150943396226</v>
       </c>
       <c r="L17">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="M17">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,7 +1191,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1202,13 +1199,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6595744680851063</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L18">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M18">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1220,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1228,13 +1225,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6458333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1254,13 +1251,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6318537859007833</v>
+        <v>0.6083550913838121</v>
       </c>
       <c r="L20">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M20">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1272,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>141</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1306,13 +1303,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5676470588235294</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L22">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M22">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1324,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1332,13 +1329,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.550561797752809</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L23">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M23">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1350,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1358,13 +1355,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5491525423728814</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L24">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M24">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1384,13 +1381,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.4728033472803347</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L25">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="M25">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>126</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1410,13 +1407,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4520547945205479</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L26">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M26">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1436,13 +1433,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4461538461538462</v>
+        <v>0.4351464435146444</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1454,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>36</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1462,13 +1459,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4375</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1480,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1488,13 +1485,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.3846153846153846</v>
+        <v>0.390625</v>
       </c>
       <c r="L29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1514,13 +1511,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.3571428571428572</v>
+        <v>0.08133971291866028</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1532,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>45</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1540,13 +1537,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.1028708133971292</v>
+        <v>0.07451923076923077</v>
       </c>
       <c r="L31">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1558,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1566,13 +1563,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.07211538461538461</v>
+        <v>0.058165548098434</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1584,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>386</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1592,7 +1589,7 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.04697986577181208</v>
+        <v>0.04661487236403995</v>
       </c>
       <c r="L33">
         <v>42</v>
@@ -1610,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>852</v>
+        <v>859</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1618,25 +1615,25 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.04328523862375139</v>
+        <v>0.02664796633941094</v>
       </c>
       <c r="L34">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="M34">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>862</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1644,51 +1641,25 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.02616822429906542</v>
+        <v>0.01129761136216914</v>
       </c>
       <c r="L35">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="N35">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="O35">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="P35" t="b">
         <v>1</v>
       </c>
       <c r="Q35">
-        <v>2084</v>
-      </c>
-    </row>
-    <row r="36" spans="10:17">
-      <c r="J36" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K36">
-        <v>0.01256848211408314</v>
-      </c>
-      <c r="L36">
-        <v>39</v>
-      </c>
-      <c r="M36">
-        <v>43</v>
-      </c>
-      <c r="N36">
-        <v>0.91</v>
-      </c>
-      <c r="O36">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>3064</v>
+        <v>3063</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,12 +52,12 @@
     <t>emergency</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,12 +70,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -85,54 +88,63 @@
     <t>special</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>energy</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
@@ -145,16 +157,19 @@
     <t>please</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>online</t>
-  </si>
-  <si>
-    <t>shopping</t>
   </si>
   <si>
     <t>store</t>
@@ -524,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,13 +632,13 @@
         <v>18</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -635,7 +650,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -643,13 +658,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7777777777777778</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -661,19 +676,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.708904109589041</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C5">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D5">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -711,19 +726,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9090909090909091</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -743,13 +758,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4266666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -761,19 +776,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6">
-        <v>0.8839285714285714</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -785,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -793,13 +808,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3892617449664429</v>
+        <v>0.3585271317829458</v>
       </c>
       <c r="C7">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>185</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -811,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>91</v>
+        <v>331</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -835,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -843,13 +858,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3313953488372093</v>
+        <v>0.3221476510067114</v>
       </c>
       <c r="C8">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="D8">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -861,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>345</v>
+        <v>101</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K8">
-        <v>0.84375</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -885,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -893,13 +908,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.291005291005291</v>
+        <v>0.2804232804232804</v>
       </c>
       <c r="C9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -911,19 +926,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8414634146341463</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -935,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -943,13 +958,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1507936507936508</v>
+        <v>0.1746031746031746</v>
       </c>
       <c r="C10">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -961,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>25</v>
@@ -993,13 +1008,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.09919571045576407</v>
+        <v>0.1126005361930295</v>
       </c>
       <c r="C11">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1011,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>0.8098591549295775</v>
+        <v>0.8203125</v>
       </c>
       <c r="L11">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M11">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1035,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1043,13 +1058,13 @@
         <v>27</v>
       </c>
       <c r="K12">
-        <v>0.7872340425531915</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L12">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="M12">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1061,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1069,13 +1084,13 @@
         <v>28</v>
       </c>
       <c r="K13">
-        <v>0.775</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L13">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="M13">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1087,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1095,13 +1110,13 @@
         <v>29</v>
       </c>
       <c r="K14">
-        <v>0.7647058823529411</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L14">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="M14">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1113,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1121,13 +1136,13 @@
         <v>30</v>
       </c>
       <c r="K15">
-        <v>0.746031746031746</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L15">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1139,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1147,13 +1162,13 @@
         <v>31</v>
       </c>
       <c r="K16">
-        <v>0.74375</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L16">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="M16">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1165,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1173,13 +1188,13 @@
         <v>32</v>
       </c>
       <c r="K17">
-        <v>0.7264150943396226</v>
+        <v>0.71875</v>
       </c>
       <c r="L17">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="M17">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1191,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1199,13 +1214,13 @@
         <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6914893617021277</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1217,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1225,13 +1240,13 @@
         <v>34</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="M19">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1243,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1251,13 +1266,13 @@
         <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6083550913838121</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="M20">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1269,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>150</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1277,13 +1292,13 @@
         <v>36</v>
       </c>
       <c r="K21">
-        <v>0.58</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1295,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1303,13 +1318,13 @@
         <v>37</v>
       </c>
       <c r="K22">
-        <v>0.5764705882352941</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1321,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>144</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1329,13 +1344,13 @@
         <v>38</v>
       </c>
       <c r="K23">
-        <v>0.5555555555555556</v>
+        <v>0.6135770234986945</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>235</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1347,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1355,13 +1370,13 @@
         <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5423728813559322</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>160</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1373,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1381,13 +1396,13 @@
         <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5393258426966292</v>
+        <v>0.5813953488372093</v>
       </c>
       <c r="L25">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="M25">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1399,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1407,13 +1422,13 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>0.4794520547945205</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L26">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="M26">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1425,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1433,13 +1448,13 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>0.4351464435146444</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L27">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="M27">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1451,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>135</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1459,13 +1474,13 @@
         <v>43</v>
       </c>
       <c r="K28">
-        <v>0.4230769230769231</v>
+        <v>0.535593220338983</v>
       </c>
       <c r="L28">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="M28">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1477,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>45</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1485,13 +1500,13 @@
         <v>44</v>
       </c>
       <c r="K29">
-        <v>0.390625</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L29">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1503,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1511,13 +1526,13 @@
         <v>45</v>
       </c>
       <c r="K30">
-        <v>0.08133971291866028</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L30">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1529,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>384</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1537,13 +1552,13 @@
         <v>46</v>
       </c>
       <c r="K31">
-        <v>0.07451923076923077</v>
+        <v>0.4644351464435146</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1555,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>385</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1563,13 +1578,13 @@
         <v>47</v>
       </c>
       <c r="K32">
-        <v>0.058165548098434</v>
+        <v>0.4375</v>
       </c>
       <c r="L32">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1581,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>842</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1589,13 +1604,13 @@
         <v>48</v>
       </c>
       <c r="K33">
-        <v>0.04661487236403995</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1607,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>859</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1615,25 +1630,25 @@
         <v>49</v>
       </c>
       <c r="K34">
-        <v>0.02664796633941094</v>
+        <v>0.4</v>
       </c>
       <c r="L34">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="N34">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>2082</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1641,25 +1656,155 @@
         <v>50</v>
       </c>
       <c r="K35">
-        <v>0.01129761136216914</v>
+        <v>0.1033653846153846</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N35">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>3063</v>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K36">
+        <v>0.09808612440191387</v>
+      </c>
+      <c r="L36">
+        <v>41</v>
+      </c>
+      <c r="M36">
+        <v>41</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K37">
+        <v>0.05369127516778523</v>
+      </c>
+      <c r="L37">
+        <v>48</v>
+      </c>
+      <c r="M37">
+        <v>48</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K38">
+        <v>0.03995560488346282</v>
+      </c>
+      <c r="L38">
+        <v>36</v>
+      </c>
+      <c r="M38">
+        <v>36</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39">
+        <v>0.03408029878618114</v>
+      </c>
+      <c r="L39">
+        <v>73</v>
+      </c>
+      <c r="M39">
+        <v>74</v>
+      </c>
+      <c r="N39">
+        <v>0.99</v>
+      </c>
+      <c r="O39">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K40">
+        <v>0.01835748792270531</v>
+      </c>
+      <c r="L40">
+        <v>57</v>
+      </c>
+      <c r="M40">
+        <v>59</v>
+      </c>
+      <c r="N40">
+        <v>0.97</v>
+      </c>
+      <c r="O40">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3048</v>
       </c>
     </row>
   </sheetData>
